--- a/datasets/question-answering/qa.xlsx
+++ b/datasets/question-answering/qa.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbl_annotations" displayName="tbl_annotations" ref="A1:C36" headerRowCount="1">
-  <autoFilter ref="A1:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbl_annotations" displayName="tbl_annotations" ref="A1:C21" headerRowCount="1">
+  <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Reference Answer(s)"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,261 +790,6 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>What individual is the school named after?</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>John Harvard</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Harvard_University</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Which Florida city has the biggest population?</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Jacksonville</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Jacksonville,_Florida</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>What percentage of global assets does the richest 1% of people have?</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>40%&lt;OR&gt;40</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Economic_inequality</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>What kind of university is the University of Chicago?</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>a private research university&lt;OR&gt;private research&lt;OR&gt;private research university</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>University_of_Chicago</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>What is the Chinese name for the Yuan dynasty?</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Yuán Cháo&lt;OR&gt;元朝</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Yuan_dynasty</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>The immune system protects organisms against what?</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>disease</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Immune_system</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>What organization is the IPCC a part of?</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>the United Nations</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Intergovernmental_Panel_on_Climate_Change</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>What is the only divisor besides 1 that a prime number can have?</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>itself</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Prime_number</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Where does the Rhine empty?</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>North Sea&lt;OR&gt;the North Sea in the Netherlands</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Rhine</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>When was the current parliament of Scotland convened?</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Following a referendum in 1997&lt;OR&gt;1998</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Scottish_Parliament</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>What is an Islamic revival movement?</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Islamism</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Islamism</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The word imperialism has it's origins in which ancient language? </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Latin</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Imperialism</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>What is the largest city of Poland?</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Warsaw</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Warsaw</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>When was the French and Indian War?</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1754–1763</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>French_and_Indian_War</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>What concept did philosophers in antiquity use to study simple machines?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>force&lt;OR&gt;the concept of force</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Force</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
